--- a/Tools/ExportDataTable/Excel/skill.xlsx
+++ b/Tools/ExportDataTable/Excel/skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17610" windowHeight="7710"/>
+    <workbookView windowWidth="20325" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>skillID</t>
   </si>
@@ -54,13 +54,25 @@
     <t>Hero101_attack.json</t>
   </si>
   <si>
-    <t>icon_armyskill_1</t>
+    <t>icon_attack_101</t>
   </si>
   <si>
     <t>Hero101_skill1.json</t>
   </si>
   <si>
-    <t>icon_skill_3802</t>
+    <t>icon_skill1_101</t>
+  </si>
+  <si>
+    <t>Hero101_skill2.json</t>
+  </si>
+  <si>
+    <t>icon_skill2_101</t>
+  </si>
+  <si>
+    <t>Hero101_skill3.json</t>
+  </si>
+  <si>
+    <t>icon_skill3_101</t>
   </si>
   <si>
     <t>Hero102_attack.json</t>
@@ -69,10 +81,22 @@
     <t>Hero102_skill1.json</t>
   </si>
   <si>
+    <t>Hero102_skill2.json</t>
+  </si>
+  <si>
+    <t>Hero102_skill3.json</t>
+  </si>
+  <si>
     <t>boss_01_Attack.json</t>
   </si>
   <si>
     <t>boss_01_skill1.json</t>
+  </si>
+  <si>
+    <t>boss_01_skill2.json</t>
+  </si>
+  <si>
+    <t>boss_01_skill3.json</t>
   </si>
 </sst>
 </file>
@@ -80,10 +104,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -95,6 +119,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -102,9 +148,63 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,13 +216,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -130,109 +255,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,187 +271,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,24 +462,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -485,6 +491,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,6 +545,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -546,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,10 +1064,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1138,38 +1162,38 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>10201</v>
+        <v>10103</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>10202</v>
+        <v>10104</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>20001</v>
+        <v>10201</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1180,16 +1204,100 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>20002</v>
+        <v>10202</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10203</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>10204</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>20001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>20002</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>20003</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>20004</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/ExportDataTable/Excel/skill.xlsx
+++ b/Tools/ExportDataTable/Excel/skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="11790"/>
+    <workbookView windowWidth="21000" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>skillID</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>icon_skill3_101</t>
+  </si>
+  <si>
+    <t>Hero101_skill4.json</t>
   </si>
   <si>
     <t>Hero102_attack.json</t>
@@ -104,8 +107,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -119,7 +122,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,135 +264,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -271,19 +274,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,157 +412,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,65 +468,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,8 +495,47 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,6 +550,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -570,145 +573,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,10 +1067,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1190,35 +1193,35 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>10201</v>
+        <v>10105</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>10202</v>
+        <v>10201</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>10203</v>
+        <v>10202</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -1227,12 +1230,12 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>10204</v>
+        <v>10203</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -1241,32 +1244,32 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>20001</v>
+        <v>10204</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -1274,7 +1277,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1283,12 +1286,12 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1297,6 +1300,20 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>20004</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
         <v>18</v>
       </c>
     </row>
